--- a/data/digitized_data/dwc_HJ-occurrences_22-11-04.xlsx
+++ b/data/digitized_data/dwc_HJ-occurrences_22-11-04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DD331B-1004-9C47-9FDE-B9F1A531E3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF4A771-0922-D249-921F-24CD70047AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="2240" windowWidth="27640" windowHeight="16940" xr2:uid="{C97F215F-9E74-C942-B860-D925B3540C20}"/>
+    <workbookView xWindow="660" yWindow="1120" windowWidth="27640" windowHeight="16940" xr2:uid="{C97F215F-9E74-C942-B860-D925B3540C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1021,7 +1021,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="99">
   <si>
     <t>occurrenceID</t>
   </si>
@@ -1257,12 +1257,6 @@
     <t>not sure if "n" or "m" in Claramo/ Clarano</t>
   </si>
   <si>
-    <t>Feb.12/05</t>
-  </si>
-  <si>
-    <t>Feb.12/06</t>
-  </si>
-  <si>
     <t xml:space="preserve">cannot understand Clar amo + inshade </t>
   </si>
   <si>
@@ -1270,6 +1264,60 @@
   </si>
   <si>
     <t>Torilis japonica</t>
+  </si>
+  <si>
+    <t>Osmo chi</t>
+  </si>
+  <si>
+    <t>Osmorhiza chilensis</t>
+  </si>
+  <si>
+    <t>Osmorhiza berteroi was previously chilensis. Recent iNat observations on Mt. Sutil</t>
+  </si>
+  <si>
+    <t>HJ27-5</t>
+  </si>
+  <si>
+    <t>Stel med</t>
+  </si>
+  <si>
+    <t>Stellaria media</t>
+  </si>
+  <si>
+    <t>HJ27-6</t>
+  </si>
+  <si>
+    <t>Recent iNat observation on Mt. Sutil</t>
+  </si>
+  <si>
+    <t>Nemo par</t>
+  </si>
+  <si>
+    <t>Nemophila parviflora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h </t>
+  </si>
+  <si>
+    <t>HJ27-7</t>
+  </si>
+  <si>
+    <t>HJ27-8</t>
+  </si>
+  <si>
+    <t>HJ27-9</t>
+  </si>
+  <si>
+    <t>HJ27-10</t>
+  </si>
+  <si>
+    <t>Recent iNat observations on Galiano</t>
+  </si>
+  <si>
+    <t>Mimulus guttata was changed to Erythranthe. Recent iNat observations on Galiano</t>
+  </si>
+  <si>
+    <t>Unsure if Leichtlin's Camas or Suksdorf's Large Camas</t>
   </si>
 </sst>
 </file>
@@ -1703,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A439EF-E6B0-434A-9D0B-4BA1DEE7AC14}">
-  <dimension ref="A1:BB92"/>
+  <dimension ref="A1:BB93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3:AI4"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="AZ21" sqref="AZ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1727,7 +1775,7 @@
     <col min="21" max="21" width="14.33203125" customWidth="1"/>
     <col min="22" max="22" width="15.1640625" customWidth="1"/>
     <col min="23" max="23" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="7.1640625" customWidth="1"/>
+    <col min="24" max="24" width="6.5" customWidth="1"/>
     <col min="25" max="25" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="18.83203125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
@@ -2049,12 +2097,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="4" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>27</v>
@@ -2069,7 +2117,7 @@
         <v>76</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <v>2004</v>
@@ -2080,15 +2128,8 @@
       <c r="K4">
         <v>12</v>
       </c>
-      <c r="U4" t="s">
-        <v>81</v>
-      </c>
-      <c r="V4" t="s">
-        <v>82</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="U4"/>
+      <c r="V4"/>
       <c r="AC4" s="4" t="s">
         <v>62</v>
       </c>
@@ -2114,15 +2155,15 @@
         <v>14</v>
       </c>
       <c r="BB4" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" s="4" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>27</v>
@@ -2137,7 +2178,7 @@
         <v>76</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I5">
         <v>2004</v>
@@ -2148,91 +2189,510 @@
       <c r="K5">
         <v>12</v>
       </c>
+      <c r="U5" t="s">
+        <v>79</v>
+      </c>
+      <c r="V5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="AW5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="B6" s="4">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6">
+        <v>2004</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="AW6" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="BB6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="B7" s="4">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7">
+        <v>2004</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="U7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V7" t="s">
+        <v>86</v>
+      </c>
+      <c r="W7" t="s">
+        <v>74</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="AW7" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="BB7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="B8" s="4">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8">
+        <v>2004</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+      <c r="U8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V8" t="s">
+        <v>90</v>
+      </c>
+      <c r="W8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="AW8" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="BB8" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="1:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="B9" s="4">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9">
+        <v>2004</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
       <c r="AW9" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="BB9"/>
     </row>
     <row r="10" spans="1:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="B10" s="4">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10">
+        <v>2004</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
       <c r="AW10" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="BB10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11">
+        <v>2004</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
       <c r="AW11" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="BB11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB14"/>
+    </row>
+    <row r="15" spans="1:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="49:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="49:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="49:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="49:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="49:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="49:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="49:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="49:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="49:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="49:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB26"/>
+    </row>
+    <row r="27" spans="49:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="49:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB28"/>
+    </row>
+    <row r="29" spans="49:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="49:54" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AW30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="49:54" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="49:54" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2293,9 +2753,10 @@
     <row r="90" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="91" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="92" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BA10">
-    <sortCondition ref="A2:A10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BA11">
+    <sortCondition ref="A2:A11"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/digitized_data/dwc_HJ-occurrences_22-11-04.xlsx
+++ b/data/digitized_data/dwc_HJ-occurrences_22-11-04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF4A771-0922-D249-921F-24CD70047AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23863C0E-B59B-4A45-AAEF-FB2120342BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1120" windowWidth="27640" windowHeight="16940" xr2:uid="{C97F215F-9E74-C942-B860-D925B3540C20}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{C97F215F-9E74-C942-B860-D925B3540C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1427,7 +1427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1435,7 +1435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1753,29 +1752,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A439EF-E6B0-434A-9D0B-4BA1DEE7AC14}">
   <dimension ref="A1:BB93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="AZ21" sqref="AZ21"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="10" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
-    <col min="9" max="11" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
     <col min="13" max="17" width="9" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="7" hidden="1" customWidth="1"/>
     <col min="19" max="20" width="17" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" customWidth="1"/>
+    <col min="21" max="21" width="22.33203125" customWidth="1"/>
+    <col min="22" max="22" width="20.33203125" customWidth="1"/>
     <col min="23" max="23" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5" customWidth="1"/>
+    <col min="24" max="24" width="6" customWidth="1"/>
     <col min="25" max="25" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="18.83203125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
@@ -1787,9 +1787,12 @@
     <col min="36" max="36" width="6.5" customWidth="1"/>
     <col min="37" max="37" width="6.83203125" customWidth="1"/>
     <col min="38" max="38" width="7" customWidth="1"/>
+    <col min="39" max="39" width="10" customWidth="1"/>
     <col min="41" max="41" width="12.1640625" customWidth="1"/>
     <col min="42" max="42" width="12.83203125" customWidth="1"/>
+    <col min="47" max="47" width="16.83203125" customWidth="1"/>
     <col min="48" max="48" width="20.6640625" customWidth="1"/>
+    <col min="51" max="51" width="12.1640625" customWidth="1"/>
     <col min="53" max="53" width="20.6640625" customWidth="1"/>
     <col min="54" max="54" width="49.83203125" customWidth="1"/>
   </cols>
@@ -1954,7 +1957,7 @@
       <c r="BA1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BB1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2102,7 +2105,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
         <v>27</v>
@@ -2163,7 +2166,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4">
         <v>27</v>
@@ -2228,7 +2231,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4">
         <v>27</v>
@@ -2296,7 +2299,7 @@
         <v>87</v>
       </c>
       <c r="B7" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4">
         <v>27</v>
@@ -2367,7 +2370,7 @@
         <v>92</v>
       </c>
       <c r="B8" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4">
         <v>27</v>
@@ -2438,7 +2441,7 @@
         <v>93</v>
       </c>
       <c r="B9" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4">
         <v>27</v>
@@ -2474,7 +2477,7 @@
         <v>94</v>
       </c>
       <c r="B10" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4">
         <v>27</v>
@@ -2512,7 +2515,7 @@
         <v>95</v>
       </c>
       <c r="B11" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4">
         <v>27</v>
